--- a/Output Data/locations.xlsx
+++ b/Output Data/locations.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,115 +395,31 @@
           <t>Wetzel</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Puvisuk</t>
-        </is>
-      </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Stimmelmayr et al 2018</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wetzel</t>
+          <t>Stimmelmayr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TLSB2</t>
+          <t>Utqiaġvik</t>
         </is>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Selendang</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>Wetzel</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ruth Nukapigak Site</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Wetzel</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Trib 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Wetzel</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Moses Nayakik Site</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Wetzel</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DANLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Wetzel</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Tesh Offshore Camp</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Wetzel</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Stimmelmayr et al 2018</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Stimmelmayr</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Utqiaġvik</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Selendang</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
         <is>
           <t>Selendang</t>
         </is>
